--- a/src/databases/Schedule_OLC.xlsx
+++ b/src/databases/Schedule_OLC.xlsx
@@ -207,7 +207,7 @@
     <t>Any assembly work of sub-systems and components at port</t>
   </si>
   <si>
-    <t>Vessel preparation &amp; loading</t>
+    <t>Vessel preparation and loading</t>
   </si>
   <si>
     <t>VessPrep</t>
@@ -261,7 +261,7 @@
     <t>Demob</t>
   </si>
   <si>
-    <t>Seafloor &amp; equipment preparation</t>
+    <t>Seafloor and equipment preparation</t>
   </si>
   <si>
     <t>SeafloorEquipPrep</t>
@@ -861,26 +861,26 @@
   </sheetPr>
   <dimension ref="B2:O49"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100">
-      <selection activeCell="D22" activeCellId="0" pane="topLeft" sqref="D22"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A7" view="normal" windowProtection="false" workbookViewId="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100">
+      <selection activeCell="D12" activeCellId="0" pane="topLeft" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.6156862745098"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.1725490196078"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="75.0862745098039"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.756862745098"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.4705882352941"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="42.9254901960784"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.4941176470588"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="33.2745098039216"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="25.9294117647059"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.0274509803922"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="23.9137254901961"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.878431372549"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="21.3176470588235"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="67.556862745098"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="9.22352941176471"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.63529411764706"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.2588235294118"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="75.3960784313725"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.921568627451"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.5647058823529"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="43.1058823529412"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.6"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="33.4156862745098"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="26.0392156862745"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.121568627451"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="24.0156862745098"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.9647058823529"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="21.4039215686274"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="67.8352941176471"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="9.25882352941177"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="2">
@@ -1179,7 +1179,7 @@
       <c r="N11" s="22"/>
       <c r="O11" s="23"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="41.75" outlineLevel="0" r="12">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="40.5" outlineLevel="0" r="12">
       <c r="C12" s="6" t="n">
         <v>102</v>
       </c>
